--- a/Experiment result/Fig.4/data.xlsx
+++ b/Experiment result/Fig.4/data.xlsx
@@ -19,16 +19,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>[0.6, 0.72, 0.84, 0.64, 0.76, 0.8, 0.76, 0.68, 0.76, 0.76, 0.92, 0.84, 0.68, 0.84, 0.8, 0.64, 0.8, 0.8, 0.68, 0.76, 0.92, 0.76, 0.72, 0.84, 0.76, 0.84, 0.8, 0.92, 0.84, 0.84, 0.92, 0.96, 0.72, 0.84, 0.88, 0.8, 0.76, 0.88, 0.8, 0.92, 0.96, 0.84, 0.92, 0.88, 0.96, 1.0, 0.92, 0.84, 0.88, 0.8, 1.0, 0.84, 0.88, 0.92, 0.8, 0.8, 1.0, 0.84, 0.92, 0.92, 0.64, 0.84, 0.8, 0.92, 0.72, 0.92, 0.88, 0.84, 0.64, 0.92, 0.96, 0.76, 0.84, 0.92, 0.88, 0.88, 0.92, 0.84, 1.0, 1.0, 0.88, 0.92, 0.8, 0.96, 1.0, 0.96, 0.88, 1.0, 0.92, 0.84, 0.92, 0.92, 0.68, 1.0, 0.88, 0.76, 0.84, 0.76, 1.0, 0.96, 0.96, 0.88, 1.0, 0.92, 0.96, 0.88, 0.92, 0.92, 1.0, 1.0, 0.92, 0.88, 0.96, 0.96, 0.92, 0.96, 0.96, 0.88, 0.92, 0.92, 0.92, 1.0, 0.8, 1.0, 0.88, 0.92, 1.0, 0.92, 0.88, 0.92, 1.0, 0.92, 0.76, 0.88, 0.92, 0.88, 0.8, 0.92, 0.68, 0.88, 0.92, 0.92, 0.6, 0.92, 0.88, 0.72, 0.92, 0.96, 0.68, 0.76, 0.96, 0.6, 0.76, 0.84, 0.72, 0.8, 0.88, 0.84, 0.72, 0.92, 0.72, 0.92, 0.68, 0.8, 0.96, 0.72, 0.76, 0.92, 0.8, 0.92, 0.88, 0.8, 0.76, 0.88, 0.8, 0.88, 0.92, 0.64, 0.6, 0.76, 0.6, 0.6, 0.88, 0.64, 0.6, 0.84, 0.68, 0.64, 0.84, 0.68, 0.6, 0.84, 0.6, 0.76, 0.88, 0.72, 0.64, 0.84, 0.72, 0.68, 0.76, 0.72, 0.68, 0.6, 0.72, 0.68, 0.72, 0.72, 0.6, 0.84, 0.72, 0.8, 0.8, 0.48, 0.6, 0.64, 0.48, 0.48, 0.68, 0.52, 0.6, 0.72, 0.68, 0.84, 0.76, 0.52, 0.6, 0.64, 0.52, 0.52, 0.64, 0.52, 0.52, 0.64, 0.4, 0.6, 0.6, 0.48, 0.64, 0.64, 0.48, 0.72, 0.68, 0.56, 0.68, 0.48, 0.4, 0.76, 0.56, 0.44, 0.64, 0.8, 0.56, 0.76, 0.68, 0.52, 0.88, 0.76, 0.56, 0.6, 0.76, 0.6, 0.72, 0.8, 0.48, 0.72, 0.8, 0.48, 0.68, 0.76, 0.52, 0.44, 0.24, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+    <t>[1.0, 1.0, 1.0, 0.88, 0.88, 1.0, 0.96, 0.92, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.92, 1.0, 1.0, 1.0, 1.0, 1.0, 0.92, 0.92, 0.84, 0.88, 1.0, 0.96, 0.88, 1.0, 0.96, 0.88, 0.88, 0.96, 0.76, 0.92, 0.96, 0.92, 0.92, 1.0, 0.92, 0.96, 0.96, 0.76, 0.84, 0.96, 0.88, 1.0, 0.84, 0.92, 1.0, 0.92, 0.84, 0.92, 0.96, 0.88, 0.92, 0.96, 1.0, 0.84, 0.8, 0.92, 0.84, 1.0, 1.0, 0.92, 0.96, 0.92, 1.0, 0.92, 0.96, 0.88, 0.96, 0.96, 0.92, 1.0, 0.88, 1.0, 0.92, 0.92, 1.0, 0.88, 0.88, 1.0, 1.0, 0.64, 0.36, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
   </si>
   <si>
-    <t>[0.8, 0.84, 0.84, 0.88, 0.64, 0.84, 0.96, 0.88, 0.96, 0.84, 0.92, 0.88, 0.64, 0.92, 0.84, 0.84, 0.64, 0.92, 0.84, 0.92, 0.84, 0.84, 0.92, 0.76, 0.84, 0.68, 0.84, 0.8, 0.92, 0.76, 0.8, 0.88, 0.8, 0.56, 0.6, 0.72, 0.84, 0.88, 0.84, 0.88, 0.92, 0.92, 0.88, 0.48, 0.92, 0.92, 0.72, 0.92, 0.88, 0.56, 0.8, 0.88, 0.76, 0.84, 0.88, 0.76, 0.84, 0.92, 0.88, 0.68, 0.92, 0.92, 0.76, 0.84, 0.92, 0.88, 0.68, 0.8, 0.72, 0.44, 0.72, 0.8, 0.8, 0.72, 0.72, 0.92, 0.68, 0.72, 0.88, 0.64, 0.88, 0.92, 0.64, 0.8, 0.8, 0.84, 0.8, 0.88, 0.92, 0.8, 0.92, 0.88, 0.8, 0.92, 0.92, 0.8, 0.92, 0.88, 0.64, 0.76, 0.84, 0.76, 0.72, 0.88, 0.68, 0.8, 0.88, 0.64, 0.8, 0.88, 0.68, 0.64, 0.76, 0.92, 0.8, 0.92, 0.8, 0.8, 0.8, 0.68, 0.6, 0.64, 0.6, 0.88, 0.76, 0.76, 0.76, 0.76, 0.84, 0.84, 0.68, 0.64, 0.76, 0.92, 0.88, 0.92, 1.0, 0.92, 0.96, 0.8, 0.8, 0.92, 0.8, 0.92, 0.96, 0.8, 0.88, 0.88, 0.92, 0.88, 0.88, 0.92, 1.0, 0.96, 0.88, 1.0, 0.96, 0.88, 1.0, 0.96, 1.0, 0.92, 0.96, 1.0, 0.92, 0.96, 1.0, 0.92, 0.96, 0.92, 0.92, 0.96, 0.92, 0.92, 0.96, 0.92, 0.76, 0.76, 0.96, 0.88, 0.92, 1.0, 0.88, 0.92, 1.0, 1.0, 1.0, 1.0, 1.0, 0.92, 1.0, 0.92, 0.92, 0.92, 0.96, 0.88, 0.92, 0.84, 0.92, 0.92, 0.96, 0.92, 1.0, 0.96, 0.96, 0.92, 1.0, 0.88, 1.0, 0.96, 0.88, 1.0, 0.96, 0.88, 1.0, 1.0, 0.88, 1.0, 1.0, 1.0, 1.0, 1.0, 0.96, 0.84, 0.96, 0.92, 0.84, 1.0, 0.96, 0.88, 1.0, 0.96, 0.84, 1.0, 0.92, 1.0, 1.0, 0.96, 0.84, 0.92, 1.0, 1.0, 0.92, 1.0, 0.96, 0.92, 1.0, 0.92, 0.72, 0.92, 0.92, 0.76, 0.88, 0.88, 0.72, 0.88, 0.84, 0.72, 0.84, 0.92, 0.6, 0.8, 0.88, 0.92, 0.84, 0.88, 0.88, 0.84, 0.92, 0.76, 0.76, 0.76, 0.8, 0.64, 0.36, 0.1, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+    <t>[0.96, 0.88, 0.92, 0.96, 0.76, 0.96, 0.96, 0.76, 1.0, 0.96, 1.0, 1.0, 1.0, 1.0, 1.0, 0.88, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.96, 1.0, 0.88, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.96, 1.0, 1.0, 0.96, 1.0, 1.0, 0.96, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.96, 1.0, 1.0, 1.0, 1.0, 0.96, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.96, 0.92, 0.52, 0.36, 0.16, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[0.88, 0.76, 0.76, 0.96, 0.72, 0.8, 0.68, 0.76, 0.76, 0.64, 0.96, 0.88, 0.88, 0.8, 0.84, 0.8, 0.88, 0.92, 0.84, 0.88, 0.92, 0.96, 0.8, 0.8, 0.92, 0.6, 0.92, 0.84, 0.96, 0.84, 0.92, 0.92, 0.8, 0.8, 0.88, 0.96, 0.84, 0.92, 0.92, 0.84, 0.96, 0.96, 0.92, 1.0, 0.92, 0.84, 0.68, 0.72, 0.92, 0.84, 0.76, 0.84, 0.76, 0.8, 0.72, 0.84, 0.68, 0.76, 0.8, 0.64, 0.64, 0.8, 0.76, 0.76, 0.88, 0.64, 0.6, 0.76, 0.8, 0.6, 0.76, 0.8, 0.6, 0.76, 0.88, 0.68, 0.76, 0.8, 0.6, 0.88, 0.68, 0.72, 0.8, 0.8, 0.72, 0.88, 0.72, 0.8, 0.8, 0.8, 0.72, 0.88, 0.72, 0.64, 0.84, 0.76, 0.68, 0.84, 0.68, 0.68, 0.72, 0.8, 0.52, 0.72, 0.72, 0.48, 0.68, 0.52, 0.48, 0.72, 0.52, 0.48, 0.56, 0.68, 0.64, 0.8, 0.68, 0.64, 0.6, 0.68, 0.6, 0.68, 0.72, 0.68, 0.8, 0.84, 0.64, 0.72, 0.72, 0.64, 0.84, 0.72, 0.68, 0.64, 0.72, 0.68, 0.76, 0.84, 0.64, 0.72, 0.8, 0.64, 0.52, 0.72, 0.76, 0.56, 0.72, 0.66, 0.62, 0.8, 0.64, 0.6, 0.8, 0.6, 0.52, 0.56, 0.52, 0.68, 0.84, 0.6, 0.52, 0.48, 0.72, 0.6, 0.56, 0.68, 0.6, 0.72, 0.6, 0.64, 0.72, 0.8, 0.6, 0.72, 0.68, 0.64, 0.56, 0.68, 0.64, 0.56, 0.72, 0.64, 0.64, 0.8, 0.68, 0.52, 0.84, 0.76, 0.68, 0.84, 0.68, 0.68, 0.64, 0.68, 0.68, 0.56, 0.8, 0.68, 0.72, 0.88, 0.68, 0.84, 0.76, 0.92, 0.84, 0.68, 0.64, 0.72, 0.64, 0.64, 0.72, 0.6, 0.52, 0.62, 0.38, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+    <t>[1.0, 0.96, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.96, 0.96, 1.0, 0.96, 0.96, 1.0, 1.0, 1.0, 0.92, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.92, 1.0, 0.96, 0.92, 1.0, 0.96, 0.76, 0.92, 0.96, 0.96, 1.0, 0.96, 0.92, 1.0, 0.96, 1.0, 0.96, 0.96, 1.0, 0.96, 0.92, 1.0, 1.0, 0.92, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.96, 1.0, 0.96, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.96, 1.0, 0.88, 1.0, 1.0, 0.96, 1.0, 0.92, 0.88, 1.0, 0.96, 0.92, 1.0, 1.0, 0.64, 0.44, 0.24, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.96, 0.88, 1.0, 0.96, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.96, 1.0, 0.96, 1.0, 0.96, 0.88, 1.0, 0.96, 0.84, 0.92, 0.96, 1.0, 1.0, 1.0, 1.0, 0.96, 0.96, 1.0, 0.92, 0.96, 1.0, 1.0, 0.96, 0.88, 1.0, 0.92, 0.88, 1.0, 0.84, 0.92, 0.8, 0.96, 0.8, 0.92, 0.96, 0.92, 1.0, 0.96, 0.92, 0.96, 1.0, 0.96, 0.96, 0.72, 1.0, 0.92, 0.88, 0.84, 0.92, 0.88, 0.76, 0.96, 0.72, 0.88, 0.8, 0.88, 0.8, 0.96, 0.88, 0.72, 0.96, 0.88, 0.92, 0.64, 0.76, 0.68, 0.96, 0.96, 0.68, 0.92, 0.84, 0.92, 0.96, 0.88, 0.56, 0.32, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -354,26 +358,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C1">
         <v>50</v>
       </c>
+      <c r="D1">
+        <v>70</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -382,6 +389,9 @@
       </c>
       <c r="C2" t="s">
         <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment result/Fig.4/data.xlsx
+++ b/Experiment result/Fig.4/data.xlsx
@@ -16,26 +16,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>[1.0, 1.0, 1.0, 0.88, 0.88, 1.0, 0.96, 0.92, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.92, 1.0, 1.0, 1.0, 1.0, 1.0, 0.92, 0.92, 0.84, 0.88, 1.0, 0.96, 0.88, 1.0, 0.96, 0.88, 0.88, 0.96, 0.76, 0.92, 0.96, 0.92, 0.92, 1.0, 0.92, 0.96, 0.96, 0.76, 0.84, 0.96, 0.88, 1.0, 0.84, 0.92, 1.0, 0.92, 0.84, 0.92, 0.96, 0.88, 0.92, 0.96, 1.0, 0.84, 0.8, 0.92, 0.84, 1.0, 1.0, 0.92, 0.96, 0.92, 1.0, 0.92, 0.96, 0.88, 0.96, 0.96, 0.92, 1.0, 0.88, 1.0, 0.92, 0.92, 1.0, 0.88, 0.88, 1.0, 1.0, 0.64, 0.36, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t>[0.96, 0.88, 0.92, 0.96, 0.76, 0.96, 0.96, 0.76, 1.0, 0.96, 1.0, 1.0, 1.0, 1.0, 1.0, 0.88, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.96, 1.0, 0.88, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.96, 1.0, 1.0, 0.96, 1.0, 1.0, 0.96, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.96, 1.0, 1.0, 1.0, 1.0, 0.96, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.96, 0.92, 0.52, 0.36, 0.16, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1.0, 0.96, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.96, 0.96, 1.0, 0.96, 0.96, 1.0, 1.0, 1.0, 0.92, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.92, 1.0, 0.96, 0.92, 1.0, 0.96, 0.76, 0.92, 0.96, 0.96, 1.0, 0.96, 0.92, 1.0, 0.96, 1.0, 0.96, 0.96, 1.0, 0.96, 0.92, 1.0, 1.0, 0.92, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.96, 1.0, 0.96, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.96, 1.0, 0.88, 1.0, 1.0, 0.96, 1.0, 0.92, 0.88, 1.0, 0.96, 0.92, 1.0, 1.0, 0.64, 0.44, 0.24, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.96, 0.88, 1.0, 0.96, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.96, 1.0, 0.96, 1.0, 0.96, 0.88, 1.0, 0.96, 0.84, 0.92, 0.96, 1.0, 1.0, 1.0, 1.0, 0.96, 0.96, 1.0, 0.92, 0.96, 1.0, 1.0, 0.96, 0.88, 1.0, 0.92, 0.88, 1.0, 0.84, 0.92, 0.8, 0.96, 0.8, 0.92, 0.96, 0.92, 1.0, 0.96, 0.92, 0.96, 1.0, 0.96, 0.96, 0.72, 1.0, 0.92, 0.88, 0.84, 0.92, 0.88, 0.76, 0.96, 0.72, 0.88, 0.8, 0.88, 0.8, 0.96, 0.88, 0.72, 0.96, 0.88, 0.92, 0.64, 0.76, 0.68, 0.96, 0.96, 0.68, 0.92, 0.84, 0.92, 0.96, 0.88, 0.56, 0.32, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -358,40 +338,1797 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>30</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C1">
-        <v>50</v>
+        <v>1.2</v>
       </c>
       <c r="D1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+        <v>1.3</v>
+      </c>
+      <c r="E1">
+        <v>1.4</v>
+      </c>
+      <c r="F1">
+        <v>1.5</v>
+      </c>
+      <c r="G1">
+        <v>1.6</v>
+      </c>
+      <c r="H1">
+        <v>1.7</v>
+      </c>
+      <c r="I1">
+        <v>1.8</v>
+      </c>
+      <c r="J1">
+        <v>1.9</v>
+      </c>
+      <c r="K1">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="B2">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="C2">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="D2">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="E2">
+        <v>0.82</v>
+      </c>
+      <c r="F2">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="G2">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="H2">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="I2">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="J2">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="K2">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.68</v>
+      </c>
+      <c r="B3">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="C3">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="D3">
+        <v>0.82</v>
+      </c>
+      <c r="E3">
+        <v>0.82</v>
+      </c>
+      <c r="F3">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="G3">
+        <v>0.9</v>
+      </c>
+      <c r="H3">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="I3">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.96</v>
+      </c>
+      <c r="K3">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="B4">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="C4">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="E4">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="F4">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="G4">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="H4">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="I4">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="J4">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="K4">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="B5">
+        <v>0.76</v>
+      </c>
+      <c r="C5">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="D5">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="F5">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="G5">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="H5">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="I5">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="J5">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="K5">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="B6">
+        <v>0.78</v>
+      </c>
+      <c r="C6">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="D6">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="G6">
+        <v>0.94</v>
+      </c>
+      <c r="H6">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="I6">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="J6">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="K6">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="B7">
+        <v>0.76</v>
+      </c>
+      <c r="C7">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="D7">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="F7">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="G7">
+        <v>0.94</v>
+      </c>
+      <c r="H7">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="I7">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="J7">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="K7">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="B8">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="C8">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="D8">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="E8">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="F8">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="G8">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="H8">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="I8">
+        <v>0.94</v>
+      </c>
+      <c r="J8">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="K8">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.72</v>
+      </c>
+      <c r="B9">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="C9">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="D9">
+        <v>0.92</v>
+      </c>
+      <c r="E9">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="F9">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="G9">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="H9">
+        <v>0.96</v>
+      </c>
+      <c r="I9">
+        <v>0.94</v>
+      </c>
+      <c r="J9">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="K9">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="B10">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="C10">
+        <v>0.84</v>
+      </c>
+      <c r="D10">
+        <v>0.88</v>
+      </c>
+      <c r="E10">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="F10">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="G10">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="H10">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="I10">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="J10">
+        <v>0.98</v>
+      </c>
+      <c r="K10">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.7</v>
+      </c>
+      <c r="B11">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="C11">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="D11">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.9</v>
+      </c>
+      <c r="F11">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="G11">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="H11">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="I11">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="J11">
+        <v>0.98</v>
+      </c>
+      <c r="K11">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.72</v>
+      </c>
+      <c r="B12">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="C12">
+        <v>0.82</v>
+      </c>
+      <c r="D12">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="F12">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="G12">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="H12">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="I12">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="J12">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K12">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="B13">
+        <v>0.76</v>
+      </c>
+      <c r="C13">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="D13">
+        <v>0.84</v>
+      </c>
+      <c r="E13">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="F13">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="G13">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="H13">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="J13">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="K13">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="B14">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="C14">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="D14">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="E14">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="F14">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="G14">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="H14">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="J14">
+        <v>0.98</v>
+      </c>
+      <c r="K14">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="B15">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="D15">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="E15">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="F15">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="G15">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="H15">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.92</v>
+      </c>
+      <c r="J15">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="K15">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="B16">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="C16">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="D16">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="E16">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="F16">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="G16">
+        <v>0.98</v>
+      </c>
+      <c r="H16">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="J16">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="K16">
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.7</v>
+      </c>
+      <c r="B17">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="C17">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="D17">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="E17">
+        <v>0.9</v>
+      </c>
+      <c r="F17">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="G17">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="H17">
+        <v>0.98</v>
+      </c>
+      <c r="I17">
+        <v>0.94</v>
+      </c>
+      <c r="J17">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="K17">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="B18">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="C18">
+        <v>0.78</v>
+      </c>
+      <c r="D18">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="E18">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="F18">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="G18">
+        <v>0.98</v>
+      </c>
+      <c r="H18">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="J18">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="K18">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="B19">
+        <v>0.78</v>
+      </c>
+      <c r="C19">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="D19">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="E19">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="F19">
+        <v>0.94</v>
+      </c>
+      <c r="G19">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="H19">
+        <v>0.98</v>
+      </c>
+      <c r="I19">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="J19">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="K19">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="B20">
+        <v>0.752</v>
+      </c>
+      <c r="C20">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="D20">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="E20">
+        <v>0.86</v>
+      </c>
+      <c r="F20">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="G20">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="H20">
+        <v>0.98</v>
+      </c>
+      <c r="I20">
+        <v>0.94</v>
+      </c>
+      <c r="J20">
+        <v>0.96</v>
+      </c>
+      <c r="K20">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="B21">
+        <v>0.752</v>
+      </c>
+      <c r="C21">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="D21">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="E21">
+        <v>0.86</v>
+      </c>
+      <c r="F21">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="G21">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="H21">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="I21">
+        <v>0.94</v>
+      </c>
+      <c r="J21">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="K21">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0.68</v>
+      </c>
+      <c r="B22">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="C22">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="D22">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="E22">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="F22">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="G22">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="H22">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="I22">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="J22">
+        <v>0.96</v>
+      </c>
+      <c r="K22">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="B23">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="C23">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="D23">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="E23">
+        <v>0.86</v>
+      </c>
+      <c r="F23">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="G23">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="H23">
+        <v>0.96</v>
+      </c>
+      <c r="I23">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="J23">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="K23">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="B24">
+        <v>0.748</v>
+      </c>
+      <c r="C24">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="D24">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="E24">
+        <v>0.876</v>
+      </c>
+      <c r="F24">
+        <v>0.92</v>
+      </c>
+      <c r="G24">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="H24">
+        <v>0.96</v>
+      </c>
+      <c r="I24">
+        <v>0.96</v>
+      </c>
+      <c r="J24">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="K24">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="B25">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="C25">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="D25">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="E25">
+        <v>0.876</v>
+      </c>
+      <c r="F25">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="G25">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="H25">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="I25">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="J25">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="K25">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.7</v>
+      </c>
+      <c r="B26">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="C26">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="D26">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="E26">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="F26">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="G26">
+        <v>0.96</v>
+      </c>
+      <c r="H26">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="I26">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="J26">
+        <v>0.96</v>
+      </c>
+      <c r="K26">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="B27">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="C27">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="D27">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="E27">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="F27">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="G27">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="H27">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="I27">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="J27">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="K27">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="B28">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="C28">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="D28">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="E28">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="F28">
+        <v>0.9</v>
+      </c>
+      <c r="G28">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="H28">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="I28">
+        <v>0.96</v>
+      </c>
+      <c r="J28">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="K28">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="B29">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="C29">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="D29">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="E29">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="F29">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="G29">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="H29">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="I29">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="J29">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="K29">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="B30">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="C30">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="D30">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="E30">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="F30">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="G30">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="H30">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="I30">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="J30">
+        <v>0.96</v>
+      </c>
+      <c r="K30">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="B31">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="C31">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="D31">
+        <v>0.872</v>
+      </c>
+      <c r="E31">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="F31">
+        <v>0.9</v>
+      </c>
+      <c r="G31">
+        <v>0.96</v>
+      </c>
+      <c r="H31">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="I31">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="J31">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="K31">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="B32">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="C32">
+        <v>0.82</v>
+      </c>
+      <c r="D32">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="E32">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="F32">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="G32">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="H32">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="I32">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="J32">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="K32">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="B33">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="C33">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="D33">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="E33">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="F33">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="G33">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="H33">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="I33">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="J33">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="K33">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0.7</v>
+      </c>
+      <c r="B34">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="C34">
+        <v>0.82</v>
+      </c>
+      <c r="D34">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="E34">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="F34">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="G34">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="H34">
+        <v>0.94</v>
+      </c>
+      <c r="I34">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="J34">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="K34">
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="B35">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="C35">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="D35">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="E35">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="F35">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="G35">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="H35">
+        <v>0.92</v>
+      </c>
+      <c r="I35">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="J35">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="K35">
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="B36">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="C36">
+        <v>0.78</v>
+      </c>
+      <c r="D36">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="E36">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="F36">
+        <v>0.88</v>
+      </c>
+      <c r="G36">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="H36">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="I36">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="J36">
+        <v>0.98</v>
+      </c>
+      <c r="K36">
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0.72</v>
+      </c>
+      <c r="B37">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="C37">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="D37">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="E37">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="F37">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="G37">
+        <v>0.96</v>
+      </c>
+      <c r="H37">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="I37">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="J37">
+        <v>0.98</v>
+      </c>
+      <c r="K37">
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0.72</v>
+      </c>
+      <c r="B38">
+        <v>0.752</v>
+      </c>
+      <c r="C38">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="D38">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="E38">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="F38">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="G38">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="H38">
+        <v>0.92</v>
+      </c>
+      <c r="I38">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="J38">
+        <v>0.98</v>
+      </c>
+      <c r="K38">
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="B39">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="C39">
+        <v>0.8</v>
+      </c>
+      <c r="D39">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="E39">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="F39">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="G39">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="H39">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="I39">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="J39">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="K39">
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="B40">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="C40">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="D40">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="E40">
+        <v>0.86</v>
+      </c>
+      <c r="F40">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="G40">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="H40">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="I40">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="J40">
+        <v>0.996</v>
+      </c>
+      <c r="K40">
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="B41">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="C41">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="D41">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="E41">
+        <v>0.84</v>
+      </c>
+      <c r="F41">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="G41">
+        <v>0.94</v>
+      </c>
+      <c r="H41">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="I41">
+        <v>0.96</v>
+      </c>
+      <c r="J41">
+        <v>0.996</v>
+      </c>
+      <c r="K41">
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="B42">
+        <v>0.82</v>
+      </c>
+      <c r="C42">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="D42">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="E42">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="F42">
+        <v>0.88</v>
+      </c>
+      <c r="G42">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="H42">
+        <v>0.92</v>
+      </c>
+      <c r="I42">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="J42">
+        <v>0.996</v>
+      </c>
+      <c r="K42">
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0.68</v>
+      </c>
+      <c r="B43">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="C43">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="D43">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="E43">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="F43">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="G43">
+        <v>0.92</v>
+      </c>
+      <c r="H43">
+        <v>0.9</v>
+      </c>
+      <c r="I43">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="J43">
+        <v>0.996</v>
+      </c>
+      <c r="K43">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="B44">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="C44">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="D44">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="E44">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="F44">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="G44">
+        <v>0.94</v>
+      </c>
+      <c r="H44">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="I44">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="J44">
+        <v>0.98</v>
+      </c>
+      <c r="K44">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="B45">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="C45">
+        <v>0.84</v>
+      </c>
+      <c r="D45">
+        <v>0.8</v>
+      </c>
+      <c r="E45">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="F45">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="G45">
+        <v>0.94</v>
+      </c>
+      <c r="H45">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="I45">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="J45">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="K45">
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="B46">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="C46">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="D46">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="E46">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="F46">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="G46">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="H46">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="I46">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="J46">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="K46">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="B47">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="C47">
+        <v>0.84</v>
+      </c>
+      <c r="D47">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="E47">
+        <v>0.872</v>
+      </c>
+      <c r="F47">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="G47">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="H47">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="I47">
+        <v>0.94</v>
+      </c>
+      <c r="J47">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="K47">
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="B48">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="C48">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="D48">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="E48">
+        <v>0.9</v>
+      </c>
+      <c r="F48">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="G48">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="H48">
+        <v>0.88</v>
+      </c>
+      <c r="I48">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="J48">
+        <v>0.96</v>
+      </c>
+      <c r="K48">
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="B49">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="C49">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="D49">
+        <v>0.84</v>
+      </c>
+      <c r="E49">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="F49">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="G49">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="H49">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="I49">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="J49">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="K49">
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="B50">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="C50">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="D50">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="E50">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="F50">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="G50">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="H50">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="I50">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="J50">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="K50">
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="B51">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="C51">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="D51">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="E51">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="F51">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="G51">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="H51">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="I51">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="J51">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="K51">
+        <v>0.96</v>
       </c>
     </row>
   </sheetData>
